--- a/biology/Zoologie/Castianeira/Castianeira.xlsx
+++ b/biology/Zoologie/Castianeira/Castianeira.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Castianeira est un genre d'araignées aranéomorphes de la famille des Corinnidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Castianeira est un genre d'araignées aranéomorphes de la famille des Corinnidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique, dans le sud de l'Asie et en Europe du Sud[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Amérique, en Afrique, dans le sud de l'Asie et en Europe du Sud.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 19/02/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 19/02/2024) :
 Castianeira abuelita Reiskind, 1969
 Castianeira alata Muma, 1945
 Castianeira alba Reiskind, 1969
@@ -668,7 +684,7 @@
 Castianeira zembla Reiskind, 1969
 Castianeira zetes Simon, 1897
 Castianeira zionis (Chamberlin &amp; Woodbury, 1929)
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Castianeira tenebricosa Wunderlich, 1988</t>
         </is>
       </c>
@@ -697,12 +713,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1879 dans les Drassidae.
-Thargalia[3] a été placé en synonymie par Keyserling en 1887[4].
-Micariaulax[5], Tylophora[6] et Geotrecha[7] ont été placés en synonymie par Simon en 1897[8].
-Pedo[9] a été placé en synonymie par F. O. Pickard-Cambridge en 1899[10].
+Thargalia a été placé en synonymie par Keyserling en 1887.
+Micariaulax, Tylophora et Geotrecha ont été placés en synonymie par Simon en 1897.
+Pedo a été placé en synonymie par F. O. Pickard-Cambridge en 1899.
 </t>
         </is>
       </c>
@@ -731,7 +749,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1879 : « Neue Spinnen aus Amerika. » Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 29, p. 293-349 (texte intégral).</t>
         </is>
